--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44883.42645833334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45734</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>45735.52981481481</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45831.63664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44764</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>45344</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45733.42328703704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>45726.31182870371</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45723.32413194444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45566.86297453703</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44501.50063657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44390.66479166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44453.330625</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44341</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44470.35111111111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44706.37280092593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>44419.44546296296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44687</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44880.71259259259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44337.61608796296</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44849.57126157408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44363.5824537037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44530.70315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44375.48074074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44517.55771990741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44614.89628472222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44361.37475694445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44727.77521990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44258</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44659</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44824.34898148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44789.66380787037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44498.46320601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44532.78952546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44344.38766203704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44439.56074074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44706.3594212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44725</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44350</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>44459.60774305555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44447.31424768519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44344</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44337</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44475.46502314815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44475.47101851852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44443.36594907408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44692.38447916666</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44610</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44615</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44491</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44616.63900462963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44515.4025925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44515.41208333334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44882.3575</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44488.41126157407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44524.42733796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44792</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44797.4324537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44789.64864583333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44530</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44433.63059027777</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44462.49716435185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44796.3941087963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44517</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44530.70151620371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44837</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44872.64039351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44454.32574074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44515.41927083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44357</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44357</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44351.27846064815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44515.37336805555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44645</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44638.3171875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44706.34927083334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44448.50319444444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44614.88405092592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>44517.53170138889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>44375.45502314815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>44658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44789.65445601852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44813</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>44859</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>44343.62659722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45400.73189814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>45400.73284722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>45400.73368055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>44902</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44958.48202546296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>44440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45751.42887731481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>45359.52900462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44903</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>45334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44902</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>45411.38792824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>45594.41428240741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45609.40314814815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>45610.286875</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45021.52868055556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>45432.54230324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44981</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>45211</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>45361.80405092592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>45361.81438657407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45363.34048611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44264</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>45544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>45544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>45544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45623.88096064814</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>45266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>45509.48347222222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45736.5356712963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44453.61770833333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45354.64714120371</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>45740.31439814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45737.73592592592</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45726.32662037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45420.46322916666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44895</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45799.70711805556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44901</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44981.47715277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45884.56457175926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45884.57773148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44397.51965277778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44898</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45569.34135416667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45615.47503472222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45785.66313657408</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45688.77449074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45884.56594907407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45884.56734953704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45386.33019675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45274</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44988.62121527778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45113.51958333333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>45629.54954861111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45804.32085648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45411.70482638889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45610</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45181.47123842593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>45810.30193287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45888.34644675926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>45645.74783564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>45810.30738425926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45747.40596064815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45890.29003472222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45617.6054050926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45890.25476851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45816.69167824074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45895.53327546296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45559.79987268519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45817.56479166666</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45817.68100694445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>45814.42583333333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45251.53454861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45816.69795138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>45816.70137731481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>45726.52478009259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>45726.54515046296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>45641.68503472222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44832.42837962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45099</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45898.64099537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>45274.65697916667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45726.3712037037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45000.48203703704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45376.35157407408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45726.36733796296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44517</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>45898.42581018519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45898.43731481482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44658.51116898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44754.33582175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>45898.43144675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>45275.3553587963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>45820.50503472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>45322</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>45902</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44440.48633101852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>45905.69912037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>45245</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>45905.3328125</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>45904.31189814815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45904.30618055556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45824.50614583334</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45824.50850694445</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45909.6513425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45909.65709490741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45909.67068287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45825.43653935185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45911.60729166667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45911.60040509259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45726.53104166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45735.65590277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45737.73006944444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45739.37567129629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45726.51960648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45911.59709490741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45734</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45911.61206018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45411.33927083333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45913.84703703703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45034.60506944444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45739.37190972222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45739.40741898148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45726.32915509259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45826.73800925926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>45912.55064814815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>45726.32260416666</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>45743.548125</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>45911.87665509259</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45737.67600694444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45737.67806712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>45723.30767361111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45736.53746527778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45739.38702546297</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45827</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45730.55692129629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45733.55653935186</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45678.67097222222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45726.34305555555</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45726.54803240741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>45831.49241898148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45730.5670949074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45167.5919212963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45831.5425462963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45918.66677083333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45191</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45191</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45831.54914351852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45918</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45918.65642361111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45832.50234953704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45609.45824074074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45923.54349537037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45167.54377314815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44432</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45194</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45194</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45832.59876157407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>45834.55466435185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45835.33660879629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45834.55905092593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45834.47158564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45834.47517361111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45835.34372685185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45238</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45559.35798611111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45933.57299768519</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45838.56883101852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44486.73458333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45936.3486574074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45936.35365740741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45323.35704861111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45840.43393518519</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45840.43331018519</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45120</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45938.55462962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45770.73893518518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45938.6440625</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45211</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45938.55248842593</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45390.37694444445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45785.70070601852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45895.51177083333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45609.47130787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45354.64111111111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45713.56717592593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45573.44546296296</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45407</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45846.3706712963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45947.49659722222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45300.4329050926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>45946.47084490741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45849.60616898148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45048</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45160.54067129629</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45950.35351851852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45950.42579861111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45950.43148148148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45854.48346064815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>45855.35803240741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>45855.33596064815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45615.51563657408</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45370.34858796297</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45856.25802083333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45547.34216435185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45547.34479166667</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45678.48315972222</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>44981</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45862.84484953704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45867.55393518518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45751.41517361111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45867.55528935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45107</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45160.54385416667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45630.51900462963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45952.34613425926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45868.66825231481</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45953.94754629629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45953.93725694445</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45953.92935185185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45953.93274305556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45020.46041666667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45957.3259375</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45951.61582175926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45609.45116898148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45250</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45803.25846064815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45954.44090277778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45764.48995370371</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45609.85064814815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45873.36136574074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>44979</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45747.31962962963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>45615.52331018518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>45091.6591087963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44974.68053240741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44937</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>45636.47851851852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45485.53696759259</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45342.49421296296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45489.43810185185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45021.49577546296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45877.4678125</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>45961.48157407407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45561.75966435186</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45376.9174537037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>45959.79231481482</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>44942.42326388889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>44494.4421875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45964.57518518518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45964.5790162037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>44970.70373842592</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>45734</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45645.74960648148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45644.2771412037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45572.40824074074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45968.43841435185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>44617</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45344</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>45566.87013888889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>44337.61400462963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>44915.39818287037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>44616</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45972</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44859.58251157407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44613.74009259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44614.89315972223</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45054.2469212963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45180.54508101852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45793.54684027778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>44797</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45979.6137962963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44970.71144675926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45979.5437037037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45751.42364583333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45747.30217592593</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45763.58878472223</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>44897</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45980.65587962963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>45980.67776620371</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45982.48869212963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44806.52274305555</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45985.44790509259</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>46029.44424768518</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45250</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45735.75422453704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44564</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45988.53439814815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44860.60222222222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>46035.60223379629</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>46034.45552083333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45342.49748842593</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45432.31332175926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45993.61361111111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45533.87207175926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>45386.34435185185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>45995.57681712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44981</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45952.34476851852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>45342.49605324074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45526.33056712963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45407.5666550926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45114</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>46001.34990740741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>46001.34674768519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>46001.3484837963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44895</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>44603.9146412037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>46002.3089699074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>46002.33260416667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45160.47452546296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>46002.26813657407</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45726.33481481481</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>45726.33739583333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45751.44672453704</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45358.72425925926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>46006.73288194444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>45069.71642361111</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45236</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45236</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>46006</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>46006.73450231482</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>46006.73152777777</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>45560.27940972222</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45764.48844907407</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45194.50590277778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45371.45640046296</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45149</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45364.4331712963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45000.48731481482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45628.60256944445</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>46008.69274305556</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45701.6132175926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>45775.6441087963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>45775.64578703704</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>46009.63135416667</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>45742.58265046297</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>45585.57081018519</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44409.55400462963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>46050</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>45761.45614583333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45526</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>45692.40488425926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44804.46896990741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44830.29479166667</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45738.35376157407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45698.3783912037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44806.52619212963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45555.64620370371</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44749.5343287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>45699.71619212963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>46056.49457175926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45709.63869212963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45687.68706018518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>45485.54372685185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>45485.54509259259</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>45693.45027777777</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>45723.31400462963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>45910.38482638889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45701.31409722222</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>45000</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>44463.45494212963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44872</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45737.68090277778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45738.35538194444</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44915</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45362.36138888889</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>45726.5418287037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45091.48631944445</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>45588.61688657408</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45411.49805555555</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45726.33575231482</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45763.36215277778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45267</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45166.37446759259</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45565.78096064815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45357.49026620371</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45191</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45267.68408564815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45160.54199074074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44698.6441087963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45069.71425925926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44987</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45181.60784722222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45474.48517361111</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45747.40732638889</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45538.58988425926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44344.45417824074</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>45772.32306712963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>45420</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>45726.31612268519</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45588.62341435185</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45243.69475694445</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>45099.35179398148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45082.51859953703</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45043</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45020.4646412037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45518.32392361111</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>45518.46350694444</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45400.66760416667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45069</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45069</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45714.68129629629</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45544.3884837963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45316.29578703704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45098</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45180</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44574.50385416667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44964.37417824074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45167.60839120371</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44343.60782407408</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45621.56325231482</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45029.31045138889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44981.56767361111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44811.30616898148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45370.35207175926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45370.38039351852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45372</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45747</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45747</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45453.50917824074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>45566.85488425926</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45566.85929398148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45224</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45245</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>45223.62131944444</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45056</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>44958.5433912037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>45485.53962962963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>45485.54233796296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45735.66385416667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45572.38883101852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>44953</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>45391.31891203704</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45474.57969907407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45433.44925925926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45726.5531712963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45629.57923611111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45176.49778935185</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45609.40024305556</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44987.8475462963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45720.56641203703</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33247,7 +33247,7 @@
         <v>45749.65101851852</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33304,7 +33304,7 @@
         <v>44855.41949074074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>44964</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44964</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45544</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>45516.45503472222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45082</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45491.88498842593</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44950</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45615.52821759259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>45739.38972222222</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45726.36081018519</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45400.74315972222</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44849.57127314815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44250</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44785</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>45736.53384259259</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45575.47695601852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>45211.69251157407</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44448</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45734.55474537037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45705</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45782.43465277777</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44349</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>45342.34943287037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>45523.40038194445</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45784.35984953704</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45785.66967592593</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45784.58930555556</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45785.65288194444</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45086.45140046296</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45120</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45784.59038194444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45629.38807870371</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45789.4496412037</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45789.4516087963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45384</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45572.39009259259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45531.51025462963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45791.66050925926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45790.54443287037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45791.45486111111</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45266.57142361111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45791.65950231482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45559.57224537037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45790.49822916667</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45793.60144675926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>45793.60371527778</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44454.32413194444</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>45211</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45797.4727199074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44883.42645833334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45734</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>45735.52981481481</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45831.63664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44764</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>45344</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45733.42328703704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>45726.31182870371</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45723.32413194444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45566.86297453703</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44501.50063657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44390.66479166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44453.330625</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44341</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44470.35111111111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44706.37280092593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>44419.44546296296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44687</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44880.71259259259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44337.61608796296</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44849.57126157408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44363.5824537037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44530.70315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44375.48074074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44517.55771990741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44614.89628472222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44361.37475694445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44727.77521990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44258</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44659</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44824.34898148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44789.66380787037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44498.46320601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44532.78952546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44344.38766203704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44439.56074074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44706.3594212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44725</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44350</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>44459.60774305555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44447.31424768519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44344</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44337</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44475.46502314815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44475.47101851852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44443.36594907408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44692.38447916666</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44610</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44615</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44491</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44616.63900462963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44515.4025925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44515.41208333334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44882.3575</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44488.41126157407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44524.42733796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44792</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44797.4324537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44789.64864583333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44530</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44433.63059027777</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44462.49716435185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44796.3941087963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44517</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44530.70151620371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44837</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44872.64039351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44454.32574074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44515.41927083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44357</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44357</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44351.27846064815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44515.37336805555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44645</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44638.3171875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44706.34927083334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44448.50319444444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44614.88405092592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>44517.53170138889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>44375.45502314815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>44658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44789.65445601852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44813</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>44859</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>44343.62659722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45400.73189814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>45400.73284722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>45400.73368055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>44902</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44958.48202546296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>44440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45751.42887731481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>45359.52900462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44903</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>45334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44902</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>45411.38792824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>45594.41428240741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45609.40314814815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>45610.286875</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45021.52868055556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>45432.54230324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44981</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>45211</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>45361.80405092592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>45361.81438657407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45363.34048611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44264</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>45544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>45544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>45544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45623.88096064814</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>45266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>45509.48347222222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45736.5356712963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44453.61770833333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45354.64714120371</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>45740.31439814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45737.73592592592</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45726.32662037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45420.46322916666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44895</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45799.70711805556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44901</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44981.47715277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45884.56457175926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45884.57773148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44397.51965277778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44898</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45569.34135416667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45615.47503472222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45785.66313657408</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45688.77449074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45884.56594907407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45884.56734953704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45386.33019675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45274</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44988.62121527778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45113.51958333333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>45629.54954861111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45804.32085648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45411.70482638889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45610</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45181.47123842593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>45810.30193287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45888.34644675926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>45645.74783564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>45810.30738425926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45747.40596064815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45890.29003472222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45617.6054050926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45890.25476851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45816.69167824074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45895.53327546296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45559.79987268519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45817.56479166666</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45817.68100694445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>45814.42583333333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45251.53454861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45816.69795138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>45816.70137731481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>45726.52478009259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>45726.54515046296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>45641.68503472222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44832.42837962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45099</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45898.64099537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>45274.65697916667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45726.3712037037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45000.48203703704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45376.35157407408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45726.36733796296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44517</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>45898.42581018519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45898.43731481482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44658.51116898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44754.33582175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>45898.43144675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>45275.3553587963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>45820.50503472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>45322</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>45902</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44440.48633101852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>45905.69912037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>45245</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>45905.3328125</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>45904.31189814815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45904.30618055556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45824.50614583334</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45824.50850694445</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45909.6513425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45909.65709490741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45909.67068287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45825.43653935185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45911.60729166667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45911.60040509259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45726.53104166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45735.65590277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45737.73006944444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45739.37567129629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45726.51960648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45911.59709490741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45734</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45911.61206018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45411.33927083333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45913.84703703703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45034.60506944444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45739.37190972222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45739.40741898148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45726.32915509259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45826.73800925926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>45912.55064814815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>45726.32260416666</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>45743.548125</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>45911.87665509259</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45737.67600694444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45737.67806712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>45723.30767361111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45736.53746527778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45739.38702546297</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45827</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45730.55692129629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45733.55653935186</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45678.67097222222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45726.34305555555</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45726.54803240741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>45831.49241898148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45730.5670949074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45167.5919212963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45831.5425462963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45918.66677083333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45191</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45191</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45831.54914351852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45918</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45918.65642361111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45832.50234953704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45609.45824074074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45923.54349537037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45167.54377314815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44432</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45194</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45194</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45832.59876157407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>45834.55466435185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45835.33660879629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45834.55905092593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45834.47158564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45834.47517361111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45835.34372685185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45238</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45559.35798611111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45933.57299768519</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45838.56883101852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44486.73458333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45936.3486574074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45936.35365740741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45323.35704861111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45840.43393518519</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45840.43331018519</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45120</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45938.55462962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45770.73893518518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45938.6440625</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45211</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45938.55248842593</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45390.37694444445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45785.70070601852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45895.51177083333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45609.47130787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45354.64111111111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45713.56717592593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45573.44546296296</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45407</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45846.3706712963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45947.49659722222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45300.4329050926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>45946.47084490741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45849.60616898148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45048</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45160.54067129629</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45950.35351851852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45950.42579861111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45950.43148148148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45854.48346064815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>45855.35803240741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>45855.33596064815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45615.51563657408</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45370.34858796297</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45856.25802083333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45547.34216435185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45547.34479166667</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45678.48315972222</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>44981</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45862.84484953704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45867.55393518518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45751.41517361111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45867.55528935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45107</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45160.54385416667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45630.51900462963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45952.34613425926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45868.66825231481</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45953.94754629629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45953.93725694445</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45953.92935185185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45953.93274305556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45020.46041666667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45957.3259375</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45951.61582175926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45609.45116898148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45250</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45803.25846064815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45954.44090277778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45764.48995370371</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45609.85064814815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45873.36136574074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>44979</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45747.31962962963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>45615.52331018518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>45091.6591087963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44974.68053240741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44937</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>45636.47851851852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45485.53696759259</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45342.49421296296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45489.43810185185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45021.49577546296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45877.4678125</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>45961.48157407407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45561.75966435186</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45376.9174537037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>45959.79231481482</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>44942.42326388889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>44494.4421875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45964.57518518518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45964.5790162037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>44970.70373842592</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>45734</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45645.74960648148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45644.2771412037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45572.40824074074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45968.43841435185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>44617</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45344</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>45566.87013888889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>44337.61400462963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>44915.39818287037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>44616</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45972</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44859.58251157407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44613.74009259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44614.89315972223</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45054.2469212963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45180.54508101852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45793.54684027778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>44797</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45979.6137962963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44970.71144675926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45979.5437037037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45751.42364583333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45747.30217592593</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45763.58878472223</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>44897</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45980.65587962963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>45980.67776620371</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45982.48869212963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44806.52274305555</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45985.44790509259</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>46029.44424768518</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45250</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45735.75422453704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44564</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45988.53439814815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44860.60222222222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>46035.60223379629</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>46034.45552083333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45342.49748842593</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45432.31332175926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45993.61361111111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45533.87207175926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>45386.34435185185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>45995.57681712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44981</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45952.34476851852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>45342.49605324074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45526.33056712963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45407.5666550926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45114</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>46001.34990740741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>46001.34674768519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>46001.3484837963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44895</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>44603.9146412037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>46002.3089699074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>46002.33260416667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45160.47452546296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>46002.26813657407</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45726.33481481481</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>45726.33739583333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45751.44672453704</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45358.72425925926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>46006.73288194444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>45069.71642361111</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45236</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45236</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>46006</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>46006.73450231482</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>46006.73152777777</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>45560.27940972222</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45764.48844907407</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45194.50590277778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45371.45640046296</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45149</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45364.4331712963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45000.48731481482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45628.60256944445</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>46008.69274305556</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45701.6132175926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>45775.6441087963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>45775.64578703704</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>46009.63135416667</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>45742.58265046297</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>45585.57081018519</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44409.55400462963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>46050</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>45761.45614583333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45526</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>45692.40488425926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44804.46896990741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44830.29479166667</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45738.35376157407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45698.3783912037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44806.52619212963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45555.64620370371</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44749.5343287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>45699.71619212963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>46056.49457175926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45709.63869212963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45687.68706018518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>45485.54372685185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>45485.54509259259</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>45693.45027777777</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>45723.31400462963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>45910.38482638889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45701.31409722222</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>45000</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>44463.45494212963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44872</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45737.68090277778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45738.35538194444</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44915</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45362.36138888889</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>45726.5418287037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45091.48631944445</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>45588.61688657408</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45411.49805555555</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45726.33575231482</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45763.36215277778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45267</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45166.37446759259</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45565.78096064815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45357.49026620371</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45191</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45267.68408564815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45160.54199074074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44698.6441087963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45069.71425925926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44987</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45181.60784722222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45474.48517361111</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45747.40732638889</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45538.58988425926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44344.45417824074</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>45772.32306712963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>45420</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>45726.31612268519</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45588.62341435185</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45243.69475694445</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>45099.35179398148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45082.51859953703</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45043</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45020.4646412037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45518.32392361111</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>45518.46350694444</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45400.66760416667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45069</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45069</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45714.68129629629</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45544.3884837963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45316.29578703704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45098</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45180</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44574.50385416667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44964.37417824074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45167.60839120371</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44343.60782407408</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45621.56325231482</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45029.31045138889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44981.56767361111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44811.30616898148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45370.35207175926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45370.38039351852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45372</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45747</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45747</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45453.50917824074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>45566.85488425926</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45566.85929398148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45224</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45245</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>45223.62131944444</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45056</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>44958.5433912037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>45485.53962962963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>45485.54233796296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45735.66385416667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45572.38883101852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>44953</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>45391.31891203704</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45474.57969907407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45433.44925925926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45726.5531712963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45629.57923611111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45176.49778935185</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45609.40024305556</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44987.8475462963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45720.56641203703</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33247,7 +33247,7 @@
         <v>45749.65101851852</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33304,7 +33304,7 @@
         <v>44855.41949074074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>44964</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44964</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45544</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>45516.45503472222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45082</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45491.88498842593</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44950</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45615.52821759259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>45739.38972222222</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45726.36081018519</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45400.74315972222</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44849.57127314815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44250</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44785</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>45736.53384259259</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45575.47695601852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>45211.69251157407</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44448</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45734.55474537037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45705</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45782.43465277777</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44349</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>45342.34943287037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>45523.40038194445</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45784.35984953704</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45785.66967592593</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45784.58930555556</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45785.65288194444</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45086.45140046296</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45120</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45784.59038194444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45629.38807870371</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45789.4496412037</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45789.4516087963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45384</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45572.39009259259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45531.51025462963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45791.66050925926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45790.54443287037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45791.45486111111</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45266.57142361111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45791.65950231482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45559.57224537037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45790.49822916667</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45793.60144675926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>45793.60371527778</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44454.32413194444</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>45211</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45797.4727199074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
